--- a/biology/Botanique/Udotea_geppiorum/Udotea_geppiorum.xlsx
+++ b/biology/Botanique/Udotea_geppiorum/Udotea_geppiorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Udotea geppiorum, nommée Udotea geppii par ITIS      (1 mai 2013)[1], est une espèce d'algues vertes de la famille des Udoteaceae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Udotea geppiorum, nommée Udotea geppii par ITIS      (1 mai 2013), est une espèce d'algues vertes de la famille des Udoteaceae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le thalle de cette algue est d'un vert léger. Il est composé de segments en forme d'éventail divisés en zones concentriques surmontant un grand crampon en forme de bouteille. Le thalle atteint 6,5 cm de longueur ; le crampon mesure jusqu'à 8 cm de longueur.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit dans les eaux récifales peu profondes des zones tropicales de l'ouest du Pacifique.
 </t>
